--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151661.1038063087</v>
+        <v>152888.59298262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654755</v>
+        <v>19282386.12654756</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.45035786</v>
+        <v>9802884.450357871</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5443078.858104129</v>
+        <v>5431101.525002168</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -671,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.8901112209608</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>119.5893676834709</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392506</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>93.11323406457203</v>
@@ -795,7 +797,7 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>202.9234074721265</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>164.540418312084</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -899,16 +901,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>143.4324547506685</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>123.8434121028334</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>129.8553642467539</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>29.5161201043125</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>126.8964947409552</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>130.1623136021049</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.67928552631094</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>143.4324547506683</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>88.66266823451896</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>272.65837604265</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>171.2151528348224</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>236.556516206058</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>88.66266823451896</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>192.6391524769496</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1844,13 +1846,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>126.5712097216892</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>131.9755589877488</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2005,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>83.07198331434195</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>255.1841718923181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,16 +2092,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>111.5422858787864</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>117.7395304238327</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>125.7843231826852</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2324,16 +2326,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>71.94762989914915</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>213.9504682533377</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399289</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>154.1156291734913</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,16 +2566,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>68.1370356149928</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>95.37952295492887</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>98.15366458399333</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>47.37384610069556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>205.2207552060556</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2845,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>183.8191027542684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2950,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>57.24387488545779</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3029,19 +3031,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>58.67748875058466</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>187.7303633741246</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>78.16614128474187</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>281.3403075913351</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>97.87478467995109</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>23.33741930671838</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>11.12043047005152</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>418.258860548054</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>95.17007434510738</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>192.8717243028908</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3743,10 +3745,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>90.56765762246758</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>58.67748875058447</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>225.9666719872379</v>
       </c>
       <c r="V43" t="n">
-        <v>161.673798810038</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>124.7579643360451</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>281.0278647211301</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>123.0673923170408</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1020.413988704697</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C2" t="n">
-        <v>1020.413988704697</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D2" t="n">
-        <v>597.1213678896972</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E2" t="n">
-        <v>171.1444280375548</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F2" t="n">
-        <v>171.1444280375548</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M2" t="n">
-        <v>475.942330131692</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N2" t="n">
-        <v>932.7282368344229</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4367,13 +4369,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1724.802281946922</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.262352996227</v>
+        <v>1313.082283114669</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511718</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O3" t="n">
-        <v>850.0084995511718</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4480,28 +4482,28 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
         <v>1845.599623041337</v>
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1014.031259917554</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="C5" t="n">
-        <v>587.1305299308542</v>
+        <v>181.7932598857444</v>
       </c>
       <c r="D5" t="n">
-        <v>587.1305299308542</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E5" t="n">
-        <v>587.1305299308542</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>162.0063481202544</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q5" t="n">
         <v>1845.599623041337</v>
@@ -4610,7 +4612,7 @@
         <v>1433.879624209084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1433.879624209084</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K6" t="n">
-        <v>501.1445421254694</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L6" t="n">
-        <v>501.1445421254694</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M6" t="n">
-        <v>501.1445421254694</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N6" t="n">
-        <v>501.1445421254694</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P6" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4674,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>876.528278233494</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="C7" t="n">
-        <v>704.55571511241</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="D7" t="n">
-        <v>541.2389422391807</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="E7" t="n">
-        <v>375.0307363920342</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
         <v>76.20565529896515</v>
@@ -4750,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U7" t="n">
-        <v>1565.415174541641</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V7" t="n">
-        <v>1565.415174541641</v>
+        <v>1393.7531081685</v>
       </c>
       <c r="W7" t="n">
-        <v>1535.600911810012</v>
+        <v>1118.900704341013</v>
       </c>
       <c r="X7" t="n">
-        <v>1293.037015255818</v>
+        <v>876.3368077868184</v>
       </c>
       <c r="Y7" t="n">
-        <v>1066.69424694556</v>
+        <v>649.9940394765605</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.413988704697</v>
+        <v>1717.42134552522</v>
       </c>
       <c r="C8" t="n">
-        <v>593.5132587179971</v>
+        <v>1290.52061553852</v>
       </c>
       <c r="D8" t="n">
-        <v>462.0361742714265</v>
+        <v>867.2279947235206</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0361742714265</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>475.942330131692</v>
       </c>
       <c r="L8" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="M8" t="n">
-        <v>950.4838058662885</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.257381456703</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4847,7 +4849,7 @@
         <v>1845.599623041337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.262352996227</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="9">
@@ -4863,40 +4865,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M9" t="n">
-        <v>1222.18129514588</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N9" t="n">
-        <v>1678.967201848611</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O9" t="n">
-        <v>1678.967201848611</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P9" t="n">
         <v>1845.599623041337</v>
@@ -4936,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.4393219715645</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L10" t="n">
-        <v>449.0926419794055</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M10" t="n">
-        <v>840.2784369496563</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N10" t="n">
-        <v>1217.769947825692</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O10" t="n">
-        <v>1573.198076505455</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P10" t="n">
         <v>1845.599623041337</v>
@@ -4990,22 +4992,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.075826767541</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>1040.36435937557</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="W10" t="n">
-        <v>765.5119555480831</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X10" t="n">
-        <v>522.9480589938881</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y10" t="n">
-        <v>296.6052906836302</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>346.5776290941767</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C11" t="n">
-        <v>346.5776290941767</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D11" t="n">
-        <v>346.5776290941767</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E11" t="n">
-        <v>346.5776290941767</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F11" t="n">
-        <v>346.5776290941767</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>346.5776290941767</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>48.70925056821153</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>357.6855680512415</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L11" t="n">
-        <v>814.4714747539724</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M11" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.257381456703</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q11" t="n">
         <v>1728.043288159434</v>
@@ -5066,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U11" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V11" t="n">
-        <v>1162.81734308536</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>766.4259933857068</v>
+        <v>1700.718355616419</v>
       </c>
       <c r="X11" t="n">
-        <v>766.4259933857068</v>
+        <v>1288.998356784166</v>
       </c>
       <c r="Y11" t="n">
-        <v>766.4259933857068</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>772.8420314050605</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="L12" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M12" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N12" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O12" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P12" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q12" t="n">
         <v>1763.580312956633</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.4702432027651</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="C13" t="n">
-        <v>126.4702432027651</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="D13" t="n">
-        <v>126.4702432027651</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E13" t="n">
-        <v>126.4702432027651</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F13" t="n">
-        <v>126.4702432027651</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>76.20565529896515</v>
@@ -5227,22 +5229,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786372</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U13" t="n">
         <v>1151.940779286676</v>
       </c>
       <c r="V13" t="n">
-        <v>870.229311894705</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="W13" t="n">
-        <v>595.376908067218</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="X13" t="n">
-        <v>352.8130115130231</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4702432027651</v>
+        <v>876.5282782334939</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1186.805282784092</v>
+        <v>864.5436756863778</v>
       </c>
       <c r="C14" t="n">
-        <v>759.9045527973917</v>
+        <v>864.5436756863778</v>
       </c>
       <c r="D14" t="n">
-        <v>759.9045527973917</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E14" t="n">
-        <v>759.9045527973917</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F14" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L14" t="n">
-        <v>357.6855680512415</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M14" t="n">
-        <v>814.4714747539724</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N14" t="n">
-        <v>814.4714747539724</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O14" t="n">
-        <v>1271.257381456703</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5312,16 +5314,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1672.655024218284</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1276.263674518631</v>
       </c>
       <c r="X14" t="n">
-        <v>1606.653647075622</v>
+        <v>864.5436756863778</v>
       </c>
       <c r="Y14" t="n">
-        <v>1606.653647075622</v>
+        <v>864.5436756863778</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082674</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M15" t="n">
-        <v>36.91199246082674</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N15" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O15" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.4702432027651</v>
+        <v>546.9545356544968</v>
       </c>
       <c r="C16" t="n">
-        <v>126.4702432027651</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="D16" t="n">
-        <v>126.4702432027651</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E16" t="n">
-        <v>126.4702432027651</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
         <v>76.20565529896515</v>
@@ -5464,22 +5466,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T16" t="n">
-        <v>1432.125227786372</v>
+        <v>1480.879573058502</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.940779286676</v>
+        <v>1480.879573058502</v>
       </c>
       <c r="V16" t="n">
-        <v>870.229311894705</v>
+        <v>1480.879573058502</v>
       </c>
       <c r="W16" t="n">
-        <v>595.376908067218</v>
+        <v>1206.027169231015</v>
       </c>
       <c r="X16" t="n">
-        <v>352.8130115130231</v>
+        <v>963.4632726768205</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.4702432027651</v>
+        <v>737.1205043665625</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1014.031259917554</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C17" t="n">
-        <v>886.181553127969</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D17" t="n">
-        <v>462.8889323129692</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K17" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L17" t="n">
-        <v>856.3013579804531</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="M17" t="n">
-        <v>1313.087264683184</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N17" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O17" t="n">
-        <v>1388.813716338606</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
@@ -5555,10 +5557,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X17" t="n">
-        <v>1433.879624209084</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="Y17" t="n">
-        <v>1433.879624209084</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="18">
@@ -5574,46 +5576,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K18" t="n">
-        <v>475.2419029331439</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L18" t="n">
-        <v>475.2419029331439</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M18" t="n">
-        <v>932.0278096358747</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N18" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.20132845514</v>
+        <v>459.0526195445896</v>
       </c>
       <c r="C19" t="n">
-        <v>200.228765334056</v>
+        <v>287.0800564235057</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U19" t="n">
-        <v>1587.837833251117</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="V19" t="n">
-        <v>1306.126365859145</v>
+        <v>1150.4137603944</v>
       </c>
       <c r="W19" t="n">
-        <v>1031.273962031658</v>
+        <v>875.5613565669132</v>
       </c>
       <c r="X19" t="n">
-        <v>788.7100654774636</v>
+        <v>875.5613565669132</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.3672971672056</v>
+        <v>649.2185882566553</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1899.61838738015</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C20" t="n">
-        <v>1472.71765739345</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="D20" t="n">
-        <v>1049.425036578451</v>
+        <v>575.557907948107</v>
       </c>
       <c r="E20" t="n">
-        <v>623.4480967263081</v>
+        <v>149.5809680959645</v>
       </c>
       <c r="F20" t="n">
-        <v>198.3239149157083</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G20" t="n">
-        <v>198.3239149157083</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577632</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>455.3583126271592</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L20" t="n">
-        <v>1006.023847611597</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="M20" t="n">
-        <v>1556.689382596036</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N20" t="n">
-        <v>2107.354917580474</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2120.543958335517</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y20" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336857</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O21" t="n">
-        <v>1696.494830002562</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V22" t="n">
-        <v>2007.737591668684</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1393.342889338594</v>
+        <v>1192.559954376912</v>
       </c>
       <c r="C23" t="n">
-        <v>966.4421593518939</v>
+        <v>765.6592243902124</v>
       </c>
       <c r="D23" t="n">
-        <v>543.1495385368942</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E23" t="n">
-        <v>117.1725986847517</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K23" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L23" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M23" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N23" t="n">
-        <v>1100.603903091853</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O23" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>2008.799668368096</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>2008.799668368096</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462377</v>
+        <v>1612.408318668442</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.191253630124</v>
+        <v>1612.408318668442</v>
       </c>
       <c r="Y23" t="n">
-        <v>1813.191253630124</v>
+        <v>1612.408318668442</v>
       </c>
     </row>
     <row r="24">
@@ -6069,28 +6071,28 @@
         <v>416.2236218818665</v>
       </c>
       <c r="K24" t="n">
-        <v>416.2236218818665</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="L24" t="n">
-        <v>572.914647509062</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M24" t="n">
-        <v>1123.5801824935</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N24" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O24" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P24" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q24" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R24" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S24" t="n">
         <v>2143.587005023631</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117385</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6154,7 +6156,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N25" t="n">
         <v>1451.88378161995</v>
@@ -6172,25 +6174,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>1981.571904688275</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U25" t="n">
-        <v>1981.571904688275</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V25" t="n">
-        <v>1699.860437296304</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>1699.860437296304</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X25" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1723.231029937541</v>
+        <v>1295.358323998876</v>
       </c>
       <c r="C26" t="n">
-        <v>1723.231029937541</v>
+        <v>1295.358323998876</v>
       </c>
       <c r="D26" t="n">
-        <v>1299.938409122541</v>
+        <v>872.0657031838766</v>
       </c>
       <c r="E26" t="n">
-        <v>873.9614692703988</v>
+        <v>446.0887633317342</v>
       </c>
       <c r="F26" t="n">
-        <v>448.8372874597989</v>
+        <v>446.0887633317342</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L26" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M26" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="N26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W26" t="n">
-        <v>2128.56829998265</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X26" t="n">
-        <v>2128.56829998265</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="Y26" t="n">
-        <v>1723.231029937541</v>
+        <v>1715.206688290406</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L27" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M27" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N27" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="O27" t="n">
-        <v>1696.494830002562</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>315.6159039117389</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C28" t="n">
-        <v>143.6433407906549</v>
+        <v>837.302184545315</v>
       </c>
       <c r="D28" t="n">
-        <v>44.49822504924753</v>
+        <v>673.9854116720857</v>
       </c>
       <c r="E28" t="n">
-        <v>44.49822504924753</v>
+        <v>507.7772058249392</v>
       </c>
       <c r="F28" t="n">
-        <v>44.49822504924753</v>
+        <v>335.9154315994996</v>
       </c>
       <c r="G28" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K28" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L28" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O28" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P28" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T28" t="n">
-        <v>1811.436857207411</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U28" t="n">
-        <v>1531.252408707716</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V28" t="n">
-        <v>1249.540941315744</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W28" t="n">
-        <v>974.6885374882575</v>
+        <v>1668.347381242917</v>
       </c>
       <c r="X28" t="n">
-        <v>732.1246409340625</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y28" t="n">
-        <v>505.7818726238046</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>769.2673335619127</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="C29" t="n">
-        <v>342.3666035752127</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="D29" t="n">
-        <v>342.3666035752127</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="E29" t="n">
-        <v>342.3666035752127</v>
+        <v>1116.152032654256</v>
       </c>
       <c r="F29" t="n">
-        <v>342.3666035752127</v>
+        <v>691.0278508436566</v>
       </c>
       <c r="G29" t="n">
-        <v>342.3666035752127</v>
+        <v>286.6887884331052</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M29" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N29" t="n">
-        <v>1145.829295018124</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O29" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T29" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U29" t="n">
-        <v>1934.868096967569</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="V29" t="n">
-        <v>1577.378682093818</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="W29" t="n">
-        <v>1180.987332394165</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="X29" t="n">
-        <v>769.2673335619127</v>
+        <v>1542.128972506399</v>
       </c>
       <c r="Y29" t="n">
-        <v>769.2673335619127</v>
+        <v>1542.128972506399</v>
       </c>
     </row>
     <row r="30">
@@ -6522,37 +6524,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>51.94486801115937</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J30" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K30" t="n">
-        <v>751.8547856608809</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="L30" t="n">
-        <v>751.8547856608809</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.520320645319</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="N30" t="n">
-        <v>1302.520320645319</v>
+        <v>1703.941472964473</v>
       </c>
       <c r="O30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989122</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C31" t="n">
-        <v>210.7551947550154</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D31" t="n">
-        <v>210.7551947550154</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E31" t="n">
-        <v>210.7551947550154</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F31" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6640,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668685</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894585</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394889</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>44.49822504924753</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C32" t="n">
-        <v>44.49822504924753</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D32" t="n">
-        <v>44.49822504924753</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924753</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924753</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M32" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O32" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2035.284622791544</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>1677.795207917793</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>1281.40385821814</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X32" t="n">
-        <v>869.6838593858872</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y32" t="n">
-        <v>464.3465893407776</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C33" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K33" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L33" t="n">
-        <v>572.914647509062</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="M33" t="n">
-        <v>1123.5801824935</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="N33" t="n">
-        <v>1674.245717477938</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O33" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P33" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q33" t="n">
-        <v>2224.911252462377</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S33" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T33" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U33" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V33" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W33" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X33" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y33" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>458.7432593109769</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>286.7706961898929</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D34" t="n">
-        <v>123.4539233166636</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6880,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668684</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894584</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394888</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>328.6803539293841</v>
+        <v>1399.725618125736</v>
       </c>
       <c r="C35" t="n">
-        <v>328.6803539293841</v>
+        <v>972.8248881390361</v>
       </c>
       <c r="D35" t="n">
-        <v>328.6803539293841</v>
+        <v>972.8248881390361</v>
       </c>
       <c r="E35" t="n">
-        <v>328.6803539293841</v>
+        <v>972.8248881390361</v>
       </c>
       <c r="F35" t="n">
-        <v>328.6803539293841</v>
+        <v>547.7007063284364</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>143.361643917885</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M35" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N35" t="n">
-        <v>667.4947029893171</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="O35" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P35" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>1145.737622806746</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X35" t="n">
-        <v>734.0176239744937</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y35" t="n">
-        <v>328.6803539293841</v>
+        <v>1819.573982417266</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L36" t="n">
-        <v>838.3748437825398</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M36" t="n">
-        <v>1389.040378766978</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="N36" t="n">
-        <v>1389.040378766978</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O36" t="n">
-        <v>1389.040378766978</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>717.8575411161469</v>
+        <v>1051.483930128627</v>
       </c>
       <c r="C37" t="n">
-        <v>545.8849779950629</v>
+        <v>879.5113670075434</v>
       </c>
       <c r="D37" t="n">
-        <v>382.5682051218336</v>
+        <v>716.1945941343141</v>
       </c>
       <c r="E37" t="n">
-        <v>216.3599992746871</v>
+        <v>549.9863882871676</v>
       </c>
       <c r="F37" t="n">
-        <v>44.49822504924753</v>
+        <v>378.124614061728</v>
       </c>
       <c r="G37" t="n">
-        <v>44.49822504924753</v>
+        <v>211.8676443559602</v>
       </c>
       <c r="H37" t="n">
-        <v>44.49822504924753</v>
+        <v>68.07137586411457</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>2213.678494411819</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U37" t="n">
-        <v>1933.494045912124</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V37" t="n">
-        <v>1651.782578520152</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W37" t="n">
-        <v>1376.930174692665</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X37" t="n">
-        <v>1134.366278138471</v>
+        <v>1241.649898840693</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.0235098282126</v>
+        <v>1241.649898840693</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1320.668515703089</v>
+        <v>1226.647902341728</v>
       </c>
       <c r="C38" t="n">
-        <v>893.7677857163897</v>
+        <v>799.7471723550284</v>
       </c>
       <c r="D38" t="n">
-        <v>470.47516490139</v>
+        <v>799.7471723550284</v>
       </c>
       <c r="E38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K38" t="n">
-        <v>455.3583126271592</v>
+        <v>572.9146475090618</v>
       </c>
       <c r="L38" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M38" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N38" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2128.779864234995</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2128.779864234995</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U38" t="n">
-        <v>2128.779864234995</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="V38" t="n">
-        <v>2128.779864234995</v>
+        <v>1646.496266633258</v>
       </c>
       <c r="W38" t="n">
-        <v>1732.388514535342</v>
+        <v>1646.496266633258</v>
       </c>
       <c r="X38" t="n">
-        <v>1320.668515703089</v>
+        <v>1646.496266633258</v>
       </c>
       <c r="Y38" t="n">
-        <v>1320.668515703089</v>
+        <v>1646.496266633258</v>
       </c>
     </row>
     <row r="39">
@@ -7233,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K39" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L39" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="M39" t="n">
-        <v>1417.526784297715</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="N39" t="n">
-        <v>1417.526784297715</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="O39" t="n">
-        <v>1417.526784297715</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="P39" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q39" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F40" t="n">
         <v>454.3200315065851</v>
@@ -7327,55 +7329,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T40" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U40" t="n">
-        <v>1981.571904688276</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V40" t="n">
-        <v>1981.571904688276</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>896.5231368465472</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C41" t="n">
-        <v>469.6224068598473</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D41" t="n">
-        <v>469.6224068598473</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E41" t="n">
         <v>469.6224068598473</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K41" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L41" t="n">
-        <v>549.9383681074144</v>
+        <v>455.358312627159</v>
       </c>
       <c r="M41" t="n">
-        <v>1100.603903091853</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O41" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>2133.42877001544</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W41" t="n">
-        <v>2133.42877001544</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X41" t="n">
-        <v>1721.708771183187</v>
+        <v>2165.64106180522</v>
       </c>
       <c r="Y41" t="n">
-        <v>1316.371501138077</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="42">
@@ -7470,37 +7472,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L42" t="n">
-        <v>751.8547856608809</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.520320645319</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N42" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O42" t="n">
         <v>1853.185855629757</v>
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D43" t="n">
         <v>792.3900115791711</v>
@@ -7564,7 +7566,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7588,31 +7590,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462377</v>
+        <v>1536.149080271111</v>
       </c>
       <c r="V43" t="n">
-        <v>2061.60438497749</v>
+        <v>1536.149080271111</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1261.296676443624</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>1018.732779889429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>792.3900115791711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1014.031259917554</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="C44" t="n">
-        <v>1014.031259917554</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="D44" t="n">
-        <v>888.013114123569</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E44" t="n">
-        <v>462.0361742714265</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L44" t="n">
-        <v>358.3859952497895</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M44" t="n">
-        <v>815.1719019525203</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N44" t="n">
-        <v>1271.957808655251</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P44" t="n">
-        <v>1271.957808655251</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="X44" t="n">
-        <v>1433.879624209084</v>
+        <v>1357.396947955218</v>
       </c>
       <c r="Y44" t="n">
-        <v>1433.879624209084</v>
+        <v>1357.396947955218</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>308.6094817404178</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>765.3953884431487</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>765.3953884431487</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.18129514588</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N45" t="n">
-        <v>1222.18129514588</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O45" t="n">
-        <v>1222.18129514588</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P45" t="n">
-        <v>1306.794406253903</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M2" t="n">
-        <v>480.8962504457604</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>382.424784075456</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425369</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8137,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8152,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8222,19 +8224,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>480.7446103807745</v>
       </c>
       <c r="O5" t="n">
-        <v>113.8823246645311</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>106.8108172115449</v>
       </c>
       <c r="O6" t="n">
-        <v>375.55972550576</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>484.1469440493127</v>
@@ -8374,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>112.9634683240717</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>361.4046720736148</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>464.100513539115</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>190.0864181671782</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>297.533877966958</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160601</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>382.3089311945599</v>
       </c>
       <c r="L12" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>101.0427079326423</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8930,25 +8932,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>362.3257551502136</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M14" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>480.1484446815972</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>465.9293750477951</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>465.5045236145516</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>362.3257551502136</v>
       </c>
       <c r="M17" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O17" t="n">
-        <v>113.8823246645311</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P17" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>465.1567191589062</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>108.5645695103311</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9322,7 +9324,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9337,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q19" t="n">
         <v>24.61956276478495</v>
@@ -9401,19 +9403,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>594.539855548217</v>
+        <v>362.3257551502136</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>180.0446044646217</v>
+        <v>464.528326530402</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M23" t="n">
-        <v>181.710741931019</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716183</v>
+        <v>452.4011488286621</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9717,19 +9719,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931264</v>
       </c>
       <c r="L24" t="n">
-        <v>180.788849974023</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9875,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L26" t="n">
-        <v>205.7998844961774</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
@@ -9896,7 +9898,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>180.0446044646217</v>
+        <v>184.5908146029612</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O29" t="n">
-        <v>452.4011488286621</v>
+        <v>110.4525178970657</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,22 +10190,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>454.9370402678085</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378163</v>
+        <v>173.9237914043274</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>571.3293238908518</v>
+        <v>300.5986134498007</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10431,16 +10433,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>180.788849974023</v>
+        <v>97.94106200967673</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10449,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N35" t="n">
-        <v>110.3411813754879</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366444</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10665,25 +10667,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>268.1828480767085</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>181.0208015487723</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>84.50867025038121</v>
+        <v>569.5185628754298</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
@@ -10844,7 +10846,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>177.0689530252726</v>
       </c>
       <c r="Q39" t="n">
-        <v>462.8067063011424</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>182.5915214642101</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11136,22 +11138,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M42" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>463.2315577343865</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11236,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>363.0332573709691</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N44" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M45" t="n">
-        <v>484.4966862726622</v>
+        <v>372.7867989824568</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>107.2386302028318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11455,10 +11457,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>267.4055605654851</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22607,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>272.8380685191856</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22767,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>107.5634614771281</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22787,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>275.6272398561812</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>276.4522596836125</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>58.40894477819111</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,7 +22959,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -22990,19 +22992,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>242.5877596848996</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>288.7533859076595</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>288.8973810047448</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23087,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23230,16 +23232,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>114.3539344059676</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23273,10 +23275,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>22.86861701765256</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.9949814519883</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,19 +23418,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.93173177419122</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>6.235976675401389</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23552,13 +23554,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>182.6993678901906</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>171.0462826378722</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>75.93173177419122</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>48.26680181940944</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>296.0605129651436</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23795,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>275.6272398561814</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>78.61162183015504</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23902,7 +23904,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23938,13 +23940,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>22.19843212238069</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>309.3306541137073</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>177.1501643168729</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -24184,13 +24186,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>53.328125375718</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>114.3539344059677</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>348.9253100933446</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24260,16 +24262,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>41.82089205621415</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>63.5299405605041</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>86.02262841516162</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>332.1586361714531</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -24503,7 +24505,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>297.0479132477277</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>63.52994056050366</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>117.2205539080146</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24680,25 +24682,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>89.66893953464995</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>71.95225755528347</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>113.0089626044154</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24917,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>341.6181830358612</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -24971,19 +24973,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>68.04099693542724</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>86.37998250393311</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.759898196019378</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25163,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>118.9553641951107</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>197.0149100607544</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>75.43346327040841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.7855238263075</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>3.458309905566978</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25406,10 +25408,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.153546840483614</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.8853134985971</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>79.23215548632132</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>263.3468631025454</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>348.9253100933457</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>51.41593202746083</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080134</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>294.3017302708046</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>72.88665600388288</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>19.29091348988636</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>443796.042709296</v>
+        <v>443796.0427092959</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443796.0427092961</v>
+        <v>443796.0427092959</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>443796.042709296</v>
+        <v>443796.0427092959</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500070.0722702435</v>
+        <v>443796.0427092959</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500070.0722702437</v>
+        <v>500070.0722702435</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500070.0722702437</v>
+        <v>500070.0722702434</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500070.0722702437</v>
+        <v>500070.0722702434</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500070.0722702437</v>
+        <v>500070.0722702434</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443796.042709296</v>
+        <v>500070.0722702435</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97727.09030973137</v>
+        <v>97727.09030973139</v>
       </c>
       <c r="C2" t="n">
         <v>97727.09030973139</v>
@@ -26320,40 +26322,40 @@
         <v>97727.09030973136</v>
       </c>
       <c r="E2" t="n">
-        <v>97727.09030973141</v>
+        <v>97727.09030973136</v>
       </c>
       <c r="F2" t="n">
-        <v>97727.0903097314</v>
+        <v>97727.09030973143</v>
       </c>
       <c r="G2" t="n">
         <v>97727.09030973141</v>
       </c>
       <c r="H2" t="n">
+        <v>97727.09030973141</v>
+      </c>
+      <c r="I2" t="n">
         <v>110117.9244799722</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>110117.9244799721</v>
       </c>
-      <c r="J2" t="n">
-        <v>110117.9244799722</v>
-      </c>
       <c r="K2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="L2" t="n">
         <v>110117.9244799721</v>
       </c>
       <c r="M2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="N2" t="n">
         <v>110117.9244799721</v>
       </c>
       <c r="O2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="P2" t="n">
-        <v>97727.09030973139</v>
+        <v>110117.9244799721</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25216.73195181806</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>120722.5169427568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>15700.44267092141</v>
       </c>
       <c r="C4" t="n">
-        <v>15700.44267092141</v>
+        <v>15700.4426709214</v>
       </c>
       <c r="D4" t="n">
         <v>15700.44267092141</v>
@@ -26427,37 +26429,37 @@
         <v>15700.44267092141</v>
       </c>
       <c r="F4" t="n">
+        <v>15700.4426709214</v>
+      </c>
+      <c r="G4" t="n">
         <v>15700.44267092141</v>
       </c>
-      <c r="G4" t="n">
-        <v>15700.4426709214</v>
-      </c>
       <c r="H4" t="n">
-        <v>17703.77972371005</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="I4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="J4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="K4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="L4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="M4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="N4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="O4" t="n">
-        <v>17703.77972371005</v>
+        <v>17703.77972371004</v>
       </c>
       <c r="P4" t="n">
-        <v>15700.44267092141</v>
+        <v>17703.77972371004</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>20345.93336858164</v>
       </c>
       <c r="E6" t="n">
-        <v>53973.53336858169</v>
+        <v>53973.53336858164</v>
       </c>
       <c r="F6" t="n">
-        <v>53973.53336858168</v>
+        <v>53973.53336858172</v>
       </c>
       <c r="G6" t="n">
-        <v>53973.53336858169</v>
+        <v>53973.5333685817</v>
       </c>
       <c r="H6" t="n">
-        <v>33010.07086321867</v>
+        <v>53973.5333685817</v>
       </c>
       <c r="I6" t="n">
-        <v>58595.49371883397</v>
+        <v>33378.76176701595</v>
       </c>
       <c r="J6" t="n">
         <v>-62127.02322392289</v>
       </c>
       <c r="K6" t="n">
-        <v>58595.49371883401</v>
+        <v>58595.49371883397</v>
       </c>
       <c r="L6" t="n">
-        <v>58595.49371883398</v>
+        <v>58595.49371883392</v>
       </c>
       <c r="M6" t="n">
-        <v>58595.49371883401</v>
+        <v>58595.49371883395</v>
       </c>
       <c r="N6" t="n">
-        <v>58595.49371883398</v>
+        <v>58595.49371883394</v>
       </c>
       <c r="O6" t="n">
-        <v>58595.49371883401</v>
+        <v>58595.49371883395</v>
       </c>
       <c r="P6" t="n">
-        <v>53973.53336858167</v>
+        <v>58595.493718834</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>94.82790735525987</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.399905760334</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M2" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L3" t="n">
-        <v>359.9096973612264</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34872,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,19 +34944,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="O5" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>85.46778899800323</v>
       </c>
       <c r="O6" t="n">
-        <v>352.3878357835378</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>77.19886752926232</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P9" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>275.1530773089715</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603342</v>
+        <v>359.9096973612266</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M12" t="n">
-        <v>77.94592742031428</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O17" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36057,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155941</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P21" t="n">
-        <v>158.2737632597931</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M23" t="n">
-        <v>144.2794790315872</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155941</v>
+        <v>415.010189472638</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36437,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L24" t="n">
-        <v>158.2737632597934</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36595,16 +36597,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L26" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>158.2737632597931</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
         <v>228.8157587937749</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O29" t="n">
-        <v>415.010189472638</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>432.5378064344752</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155941</v>
+        <v>150.7519016821051</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>533.7539620806206</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>158.2737632597934</v>
+        <v>75.42597529544717</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N35" t="n">
-        <v>73.0615585410419</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>245.6677613624789</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>48.74406945557187</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>155.2981118204439</v>
       </c>
       <c r="Q39" t="n">
-        <v>440.0596680121639</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>144.2794790315872</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>324.7212149383462</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N44" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M45" t="n">
-        <v>461.3999057603342</v>
+        <v>349.6900184701288</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38175,10 +38177,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>152888.59298262</v>
+        <v>147228.7984061787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654756</v>
+        <v>19282386.12654757</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357871</v>
+        <v>9802884.450357858</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -670,10 +670,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>119.5893676834709</v>
+        <v>128.6552774352947</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721265</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>153.7020492654184</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>143.4324547506685</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>131.9755589877489</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.8553642467539</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>89.35884156131581</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1107,7 +1107,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.8964947409552</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>73.55086965258961</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.7903264505247</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>143.4324547506683</v>
+        <v>71.77132399094423</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1587,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>272.65837604265</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>195.8194319178674</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>26.04526883026711</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>171.2151528348224</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6391524769496</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>127.4122854542134</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>194.6991444695635</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>131.9755589877488</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>22.26382903593188</v>
       </c>
       <c r="D19" t="n">
-        <v>83.07198331434195</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2083,19 +2083,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>111.5422858787864</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>147.0044828306516</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.249401508912962</v>
       </c>
       <c r="X22" t="n">
-        <v>125.7843231826852</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2320,10 +2320,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>411.0804874270673</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>213.9504682533377</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>98.15366458399289</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.0379121825767</v>
       </c>
       <c r="G26" t="n">
-        <v>68.1370356149928</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>47.37384610069556</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>40.16403297592316</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>297.0347010399883</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>205.2207552060556</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>127.1775712042719</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>115.1055716303386</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>394.0534116945598</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>58.67748875058466</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3204,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>161.6737988100371</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>120.2281059240622</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>99.76095105070239</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>97.87478467995109</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>23.33741930671838</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3483,16 +3483,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>99.76095105070239</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>418.258860548054</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.378995526347924</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -3714,22 +3714,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>163.9607423225989</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>99.76095105070245</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>58.67748875058447</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>225.9666719872379</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>236.4170269438071</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>281.0278647211301</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>123.0673923170408</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.082283114669</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="C2" t="n">
-        <v>886.181553127969</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="D2" t="n">
-        <v>462.8889323129692</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082673</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
         <v>399.5154512777223</v>
@@ -4369,13 +4369,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1724.802281946922</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="X2" t="n">
-        <v>1313.082283114669</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="Y2" t="n">
-        <v>1313.082283114669</v>
+        <v>1715.64479734912</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J3" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M3" t="n">
-        <v>1686.413844810522</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N3" t="n">
-        <v>1686.413844810522</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>1103.375147081574</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>608.6939898724443</v>
+        <v>1020.413988704697</v>
       </c>
       <c r="C5" t="n">
-        <v>181.7932598857444</v>
+        <v>593.5132587179971</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082673</v>
+        <v>170.2206379029974</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082673</v>
+        <v>170.2206379029974</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M5" t="n">
-        <v>36.91199246082673</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N5" t="n">
-        <v>475.942330131692</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O5" t="n">
-        <v>932.7282368344228</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4609,10 +4609,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1028.542354163974</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K6" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>308.6094817404178</v>
+        <v>932.027809635875</v>
       </c>
       <c r="M6" t="n">
-        <v>765.3953884431487</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511719</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.8270048838798</v>
+        <v>442.8314913006531</v>
       </c>
       <c r="C7" t="n">
-        <v>518.8270048838798</v>
+        <v>442.8314913006531</v>
       </c>
       <c r="D7" t="n">
-        <v>518.8270048838798</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G7" t="n">
         <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4755,22 +4755,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.464575560472</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.464575560472</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="V7" t="n">
-        <v>1393.7531081685</v>
+        <v>1150.413760394401</v>
       </c>
       <c r="W7" t="n">
-        <v>1118.900704341013</v>
+        <v>875.5613565669137</v>
       </c>
       <c r="X7" t="n">
-        <v>876.3368077868184</v>
+        <v>632.9974600127188</v>
       </c>
       <c r="Y7" t="n">
-        <v>649.9940394765605</v>
+        <v>632.9974600127188</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1717.42134552522</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.52061553852</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="D8" t="n">
-        <v>867.2279947235206</v>
+        <v>835.0511185688229</v>
       </c>
       <c r="E8" t="n">
-        <v>441.2510548713781</v>
+        <v>409.0741787166804</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>932.7282368344228</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>1389.514143537154</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N8" t="n">
-        <v>1389.514143537154</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N9" t="n">
+        <v>772.8420314050605</v>
+      </c>
+      <c r="O9" t="n">
+        <v>932.0278096358747</v>
+      </c>
+      <c r="P9" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1845.599623041337</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q9" t="n">
         <v>1845.599623041337</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>857.0077738521103</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="D10" t="n">
         <v>685.0352107310263</v>
@@ -4956,31 +4956,31 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4989,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.397180301858</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="W10" t="n">
-        <v>1679.397180301858</v>
+        <v>1516.080407428629</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>1273.516510874434</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>1047.173742564176</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>463.8127224475267</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="C11" t="n">
-        <v>36.91199246082673</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="D11" t="n">
-        <v>36.91199246082673</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082673</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L11" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M11" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N11" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O11" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P11" t="n">
         <v>1271.957808655251</v>
@@ -5080,13 +5080,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>1700.718355616419</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="X11" t="n">
-        <v>1288.998356784166</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="Y11" t="n">
-        <v>883.6610867390567</v>
+        <v>1773.103336181797</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K12" t="n">
-        <v>393.2225928484411</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="L12" t="n">
-        <v>850.0084995511719</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="M12" t="n">
-        <v>850.0084995511719</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="N12" t="n">
-        <v>850.0084995511719</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="O12" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q12" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>876.5282782334939</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C13" t="n">
-        <v>704.5557151124099</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D13" t="n">
-        <v>541.2389422391806</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E13" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F13" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786371</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.940779286676</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V13" t="n">
-        <v>876.5282782334939</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W13" t="n">
-        <v>876.5282782334939</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="X13" t="n">
-        <v>876.5282782334939</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y13" t="n">
-        <v>876.5282782334939</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>864.5436756863778</v>
+        <v>361.0887233405971</v>
       </c>
       <c r="C14" t="n">
-        <v>864.5436756863778</v>
+        <v>361.0887233405971</v>
       </c>
       <c r="D14" t="n">
-        <v>441.2510548713781</v>
+        <v>361.0887233405971</v>
       </c>
       <c r="E14" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F14" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M14" t="n">
-        <v>950.4838058662883</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N14" t="n">
-        <v>1407.269712569019</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O14" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.655024218284</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W14" t="n">
-        <v>1276.263674518631</v>
+        <v>766.4259933857068</v>
       </c>
       <c r="X14" t="n">
-        <v>864.5436756863778</v>
+        <v>766.4259933857068</v>
       </c>
       <c r="Y14" t="n">
-        <v>864.5436756863778</v>
+        <v>361.0887233405971</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M15" t="n">
-        <v>950.4838058662883</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662883</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O15" t="n">
-        <v>950.4838058662883</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P15" t="n">
-        <v>1407.269712569019</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.9545356544968</v>
+        <v>682.0950138984877</v>
       </c>
       <c r="C16" t="n">
-        <v>374.9819725334128</v>
+        <v>682.0950138984877</v>
       </c>
       <c r="D16" t="n">
-        <v>374.9819725334128</v>
+        <v>518.7782410252584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7737666862663</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T16" t="n">
-        <v>1480.879573058502</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U16" t="n">
-        <v>1480.879573058502</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.879573058502</v>
+        <v>1389.677282992235</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.027169231015</v>
+        <v>1114.824879164748</v>
       </c>
       <c r="X16" t="n">
-        <v>963.4632726768205</v>
+        <v>872.2609826105534</v>
       </c>
       <c r="Y16" t="n">
-        <v>737.1205043665625</v>
+        <v>872.2609826105534</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>887.1053432625264</v>
+        <v>1291.444405673078</v>
       </c>
       <c r="C17" t="n">
-        <v>460.2046132758265</v>
+        <v>864.5436756863778</v>
       </c>
       <c r="D17" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082673</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L17" t="n">
-        <v>357.6855680512415</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M17" t="n">
-        <v>814.4714747539723</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N17" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O17" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P17" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
         <v>1728.043288159434</v>
@@ -5548,19 +5548,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1648.933820546828</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1291.444405673078</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>1291.444405673078</v>
       </c>
       <c r="X17" t="n">
-        <v>1712.290977599166</v>
+        <v>1291.444405673078</v>
       </c>
       <c r="Y17" t="n">
-        <v>1306.953707554057</v>
+        <v>1291.444405673078</v>
       </c>
     </row>
     <row r="18">
@@ -5576,46 +5576,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>1222.18129514588</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N18" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O18" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q18" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>459.0526195445896</v>
+        <v>59.40070865873773</v>
       </c>
       <c r="C19" t="n">
-        <v>287.0800564235057</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D19" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E19" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F19" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>263.4395936666639</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="L19" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M19" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O19" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.125227786371</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U19" t="n">
-        <v>1432.125227786371</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V19" t="n">
-        <v>1150.4137603944</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W19" t="n">
-        <v>875.5613565669132</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X19" t="n">
-        <v>875.5613565669132</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="Y19" t="n">
-        <v>649.2185882566553</v>
+        <v>249.5666773708034</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1425.751258749807</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="C20" t="n">
-        <v>998.8505287631067</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="D20" t="n">
-        <v>575.557907948107</v>
+        <v>185.4013690574445</v>
       </c>
       <c r="E20" t="n">
-        <v>149.5809680959645</v>
+        <v>185.4013690574445</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082673</v>
+        <v>185.4013690574445</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K20" t="n">
-        <v>36.91199246082673</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L20" t="n">
-        <v>357.6855680512415</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M20" t="n">
-        <v>814.4714747539723</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="N20" t="n">
-        <v>1271.257381456703</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O20" t="n">
-        <v>1728.043288159434</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="P20" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5794,10 +5794,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>1845.599623041337</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y20" t="n">
-        <v>1845.599623041337</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M21" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N21" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O21" t="n">
-        <v>950.4838058662883</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P21" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1020.32454672534</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C22" t="n">
-        <v>848.3519836042556</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D22" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E22" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F22" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K22" t="n">
         <v>76.20565529896515</v>
@@ -5937,25 +5937,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V22" t="n">
-        <v>1563.888155649365</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W22" t="n">
-        <v>1563.888155649365</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X22" t="n">
-        <v>1436.833283747663</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y22" t="n">
-        <v>1210.490515437405</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1192.559954376912</v>
+        <v>898.9669742992239</v>
       </c>
       <c r="C23" t="n">
-        <v>765.6592243902124</v>
+        <v>898.9669742992239</v>
       </c>
       <c r="D23" t="n">
-        <v>342.3666035752127</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="E23" t="n">
-        <v>342.3666035752127</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="F23" t="n">
-        <v>342.3666035752127</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G23" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336855</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N23" t="n">
-        <v>1696.494830002562</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U23" t="n">
-        <v>2008.799668368096</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V23" t="n">
-        <v>2008.799668368096</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W23" t="n">
-        <v>1612.408318668442</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X23" t="n">
-        <v>1612.408318668442</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="Y23" t="n">
-        <v>1612.408318668442</v>
+        <v>1318.815338590754</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C24" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J24" t="n">
-        <v>416.2236218818665</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="K24" t="n">
-        <v>572.9146475090616</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L24" t="n">
-        <v>1123.5801824935</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M24" t="n">
-        <v>1674.245717477938</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N24" t="n">
-        <v>2224.911252462376</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O24" t="n">
-        <v>2224.911252462376</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P24" t="n">
-        <v>2224.911252462376</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q24" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S24" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T24" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U24" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V24" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W24" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X24" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y24" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>315.6159039117385</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C25" t="n">
-        <v>143.6433407906545</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E25" t="n">
-        <v>44.49822504924752</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6156,7 +6156,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
         <v>1451.88378161995</v>
@@ -6177,7 +6177,7 @@
         <v>2054.776204981511</v>
       </c>
       <c r="T25" t="n">
-        <v>1811.436857207411</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U25" t="n">
         <v>1531.252408707715</v>
@@ -6186,13 +6186,13 @@
         <v>1249.540941315744</v>
       </c>
       <c r="W25" t="n">
-        <v>974.688537488257</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X25" t="n">
-        <v>732.1246409340621</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y25" t="n">
-        <v>505.7818726238041</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1295.358323998876</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="C26" t="n">
-        <v>1295.358323998876</v>
+        <v>1281.923229516564</v>
       </c>
       <c r="D26" t="n">
-        <v>872.0657031838766</v>
+        <v>1281.923229516564</v>
       </c>
       <c r="E26" t="n">
-        <v>446.0887633317342</v>
+        <v>855.9462896644219</v>
       </c>
       <c r="F26" t="n">
-        <v>446.0887633317342</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G26" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="M26" t="n">
-        <v>2059.098288819457</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U26" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V26" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W26" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X26" t="n">
-        <v>2120.543958335516</v>
+        <v>1708.823959503264</v>
       </c>
       <c r="Y26" t="n">
-        <v>1715.206688290406</v>
+        <v>1708.823959503264</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>595.1637600336854</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M27" t="n">
-        <v>1145.829295018124</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N27" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O27" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1009.274747666399</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C28" t="n">
-        <v>837.302184545315</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D28" t="n">
-        <v>673.9854116720857</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E28" t="n">
-        <v>507.7772058249392</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F28" t="n">
-        <v>335.9154315994996</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6405,31 +6405,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S28" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T28" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U28" t="n">
-        <v>2224.911252462376</v>
+        <v>1727.553143168989</v>
       </c>
       <c r="V28" t="n">
-        <v>1943.199785070404</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="W28" t="n">
-        <v>1668.347381242917</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.783484688723</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y28" t="n">
-        <v>1199.440716378465</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1542.128972506399</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.128972506399</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D29" t="n">
-        <v>1542.128972506399</v>
+        <v>1172.682605837907</v>
       </c>
       <c r="E29" t="n">
-        <v>1116.152032654256</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F29" t="n">
-        <v>691.0278508436566</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G29" t="n">
-        <v>286.6887884331052</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H29" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L29" t="n">
-        <v>595.1637600336854</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M29" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N29" t="n">
-        <v>1696.494830002561</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O29" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>1899.618387380149</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V29" t="n">
-        <v>1542.128972506399</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W29" t="n">
-        <v>1542.128972506399</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X29" t="n">
-        <v>1542.128972506399</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y29" t="n">
-        <v>1542.128972506399</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="30">
@@ -6524,37 +6524,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>602.6104029955973</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M30" t="n">
-        <v>1153.275937980035</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N30" t="n">
-        <v>1703.941472964473</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1127.679347573484</v>
+        <v>511.1411871531062</v>
       </c>
       <c r="C31" t="n">
-        <v>955.7067844524004</v>
+        <v>339.1686240320222</v>
       </c>
       <c r="D31" t="n">
-        <v>792.3900115791711</v>
+        <v>339.1686240320222</v>
       </c>
       <c r="E31" t="n">
-        <v>626.1818057320246</v>
+        <v>172.9604181848757</v>
       </c>
       <c r="F31" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G31" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6648,25 +6648,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2061.60438497749</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>2061.60438497749</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>2061.60438497749</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>1544.188084595808</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y31" t="n">
-        <v>1317.84531628555</v>
+        <v>701.3071558651718</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1805.062888170846</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="C32" t="n">
-        <v>1378.162158184146</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D32" t="n">
-        <v>954.869537369146</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E32" t="n">
-        <v>528.8925975170035</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F32" t="n">
-        <v>103.7684157064037</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K32" t="n">
-        <v>957.767218850581</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L32" t="n">
-        <v>957.767218850581</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M32" t="n">
-        <v>957.767218850581</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N32" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O32" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P32" t="n">
-        <v>1768.825772958193</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462376</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.911252462376</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="Y32" t="n">
-        <v>2224.911252462376</v>
+        <v>740.4003527616368</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>119.1699405917402</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M33" t="n">
-        <v>669.8354755761782</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N33" t="n">
-        <v>1220.501010560616</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H34" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6882,28 +6882,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S34" t="n">
-        <v>2061.60438497749</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T34" t="n">
-        <v>2061.60438497749</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U34" t="n">
-        <v>2061.60438497749</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1399.725618125736</v>
+        <v>549.6059248847508</v>
       </c>
       <c r="C35" t="n">
-        <v>972.8248881390361</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D35" t="n">
-        <v>972.8248881390361</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E35" t="n">
-        <v>972.8248881390361</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F35" t="n">
-        <v>547.7007063284364</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G35" t="n">
-        <v>143.361643917885</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>595.1637600336854</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M35" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N35" t="n">
-        <v>1696.494830002561</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O35" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462376</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.911252462376</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y35" t="n">
-        <v>1819.573982417266</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M36" t="n">
-        <v>44.49822504924752</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N36" t="n">
-        <v>595.1637600336854</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O36" t="n">
-        <v>1145.829295018124</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P36" t="n">
-        <v>1696.494830002561</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1051.483930128627</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C37" t="n">
-        <v>879.5113670075434</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D37" t="n">
-        <v>716.1945941343141</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E37" t="n">
-        <v>549.9863882871676</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F37" t="n">
-        <v>378.124614061728</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G37" t="n">
-        <v>211.8676443559602</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H37" t="n">
-        <v>68.07137586411457</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7116,31 +7116,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.213795394888</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W37" t="n">
-        <v>1484.213795394888</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X37" t="n">
-        <v>1241.649898840693</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.649898840693</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1226.647902341728</v>
+        <v>549.6059248847508</v>
       </c>
       <c r="C38" t="n">
-        <v>799.7471723550284</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D38" t="n">
-        <v>799.7471723550284</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2634748317415</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F38" t="n">
-        <v>377.2634748317415</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G38" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H38" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K38" t="n">
-        <v>572.9146475090618</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L38" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M38" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N38" t="n">
-        <v>1674.245717477938</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O38" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P38" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U38" t="n">
-        <v>2003.985681507009</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V38" t="n">
-        <v>1646.496266633258</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W38" t="n">
-        <v>1646.496266633258</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X38" t="n">
-        <v>1646.496266633258</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y38" t="n">
-        <v>1646.496266633258</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="39">
@@ -7235,46 +7235,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>51.94486801115936</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>51.94486801115936</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M39" t="n">
-        <v>602.6104029955973</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N39" t="n">
-        <v>1153.275937980035</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O39" t="n">
-        <v>1153.275937980035</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P39" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R39" t="n">
         <v>1853.185855629757</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>454.3200315065851</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>454.3200315065851</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>454.3200315065851</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
         <v>454.3200315065851</v>
@@ -7329,7 +7329,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7341,43 +7341,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U40" t="n">
-        <v>1484.213795394888</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="V40" t="n">
-        <v>1202.502328002917</v>
+        <v>1726.026124276714</v>
       </c>
       <c r="W40" t="n">
-        <v>927.6499241754298</v>
+        <v>1726.026124276714</v>
       </c>
       <c r="X40" t="n">
-        <v>685.0860276212348</v>
+        <v>1483.462227722519</v>
       </c>
       <c r="Y40" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.792697513689</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.891967526989</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D41" t="n">
-        <v>895.5993467119897</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E41" t="n">
-        <v>469.6224068598473</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F41" t="n">
-        <v>44.49822504924752</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924752</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L41" t="n">
-        <v>455.358312627159</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M41" t="n">
-        <v>1006.023847611597</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N41" t="n">
-        <v>1556.689382596035</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O41" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>2019.775320910565</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462376</v>
+        <v>1662.285906036814</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462376</v>
+        <v>1265.894556337161</v>
       </c>
       <c r="X41" t="n">
-        <v>2165.64106180522</v>
+        <v>854.1745575049085</v>
       </c>
       <c r="Y41" t="n">
-        <v>2165.64106180522</v>
+        <v>448.8372874597989</v>
       </c>
     </row>
     <row r="42">
@@ -7472,37 +7472,37 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>866.8612493132766</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M42" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
         <v>1853.185855629757</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>792.3900115791711</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C43" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7593,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U43" t="n">
-        <v>1536.149080271111</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V43" t="n">
-        <v>1536.149080271111</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W43" t="n">
-        <v>1261.296676443624</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X43" t="n">
-        <v>1018.732779889429</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y43" t="n">
-        <v>792.3900115791711</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1357.396947955218</v>
+        <v>687.6423651808162</v>
       </c>
       <c r="C44" t="n">
-        <v>930.4962179685185</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D44" t="n">
-        <v>930.4962179685185</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E44" t="n">
-        <v>504.5192781163761</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F44" t="n">
-        <v>79.39509630577632</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G44" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>595.1637600336855</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M44" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N44" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O44" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P44" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V44" t="n">
-        <v>1357.396947955218</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W44" t="n">
-        <v>1357.396947955218</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X44" t="n">
-        <v>1357.396947955218</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y44" t="n">
-        <v>1357.396947955218</v>
+        <v>687.6423651808162</v>
       </c>
     </row>
     <row r="45">
@@ -7715,16 +7715,16 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
         <v>323.6423572907505</v>
@@ -7733,22 +7733,22 @@
         <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
+        <v>874.3078922751886</v>
+      </c>
+      <c r="M45" t="n">
+        <v>874.3078922751886</v>
+      </c>
+      <c r="N45" t="n">
+        <v>874.3078922751886</v>
+      </c>
+      <c r="O45" t="n">
+        <v>874.3078922751886</v>
+      </c>
+      <c r="P45" t="n">
         <v>1424.973427259627</v>
       </c>
-      <c r="M45" t="n">
-        <v>1771.166545545054</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1771.166545545054</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1771.166545545054</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1771.166545545054</v>
-      </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>268.5772905989117</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C46" t="n">
-        <v>268.5772905989117</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D46" t="n">
-        <v>268.5772905989117</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E46" t="n">
-        <v>268.5772905989117</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="F46" t="n">
-        <v>268.5772905989117</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5772905989117</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089715</v>
+        <v>141.9166140460796</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
@@ -7815,7 +7815,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
         <v>1451.88378161995</v>
@@ -7830,28 +7830,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U46" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V46" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W46" t="n">
-        <v>927.6499241754302</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X46" t="n">
-        <v>685.0860276212353</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y46" t="n">
-        <v>458.7432593109774</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>458.1670431142371</v>
+        <v>458.1670431142373</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -8063,16 +8063,16 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345439</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1178171425369</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8148,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>84.64530730648448</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>458.1670431142372</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>183.3088020988907</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>106.8108172115449</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8385,16 +8385,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>402.0534574160406</v>
+        <v>385.5915703929544</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>112.9634683240717</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>464.100513539115</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>183.9656051068831</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L11" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>457.1346235160601</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>382.3089311945599</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>456.5786519614258</v>
       </c>
       <c r="O12" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O14" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982026</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>465.5045236145516</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9105,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>362.3257551502136</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9251,22 +9251,22 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>108.5645695103311</v>
+        <v>183.8904958969889</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>232.5722561371962</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M19" t="n">
         <v>417.7126065281028</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
-        <v>362.3257551502136</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>481.0403493565598</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P21" t="n">
-        <v>464.528326530402</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608414</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9643,22 +9643,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>594.5398555482169</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O23" t="n">
-        <v>452.4011488286621</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>266.2788756958121</v>
       </c>
       <c r="K24" t="n">
-        <v>180.6729970931264</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9877,16 +9877,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150257</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N26" t="n">
-        <v>86.02369229001789</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>184.5908146029612</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.5398555482168</v>
+        <v>548.8576414812762</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>110.4525178970657</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291355</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9237914043274</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
         <v>38.31204243262292</v>
@@ -10360,19 +10360,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P32" t="n">
-        <v>300.5986134498007</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>451.134864077236</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>97.94106200967673</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>453.880834648017</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10451,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>571.1449214366444</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
@@ -10673,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378161</v>
+        <v>261.3177895070124</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q36" t="n">
-        <v>181.0208015487723</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>569.5185628754298</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>547.9365584046774</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>177.0689530252726</v>
+        <v>454.308647639304</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>546.3101998434627</v>
       </c>
       <c r="L41" t="n">
-        <v>453.3222319052608</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,25 +11135,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>463.2315577343865</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482169</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M44" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>372.7867989824568</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>455.2848447234538</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,7 +22549,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22558,10 +22558,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22609,10 +22609,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>272.8380685191856</v>
+        <v>263.7721587673618</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.55078822445478</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>107.5634614771283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22789,13 +22789,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>275.6272398561812</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>288.8973810047448</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22849,7 +22849,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.40894477819111</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>72.32476358318118</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>288.7533859076595</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>347.3220703399041</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -23238,10 +23238,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>114.3539344059676</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>114.3135533386874</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>248.9949814519883</v>
+        <v>320.6561122117124</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>6.235976675401389</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>44.31882567078551</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>395.6719016233539</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>182.6993678901906</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>48.26680181940944</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>151.482067263838</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -23788,19 +23788,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>61.0722158399883</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>275.6272398561814</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>147.9890084539413</v>
       </c>
       <c r="D19" t="n">
-        <v>78.61162183015504</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,7 +23904,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>309.3306541137073</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>253.2911889557942</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,22 +24177,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>269.8544782802991</v>
       </c>
       <c r="X22" t="n">
-        <v>114.3539344059677</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.979207179782406</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24220,13 +24220,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>41.82089205621415</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>63.5299405605041</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>17.83502780991699</v>
       </c>
       <c r="G26" t="n">
-        <v>332.1586361714531</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>117.2205539080146</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>238.7303197421282</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>122.0249935668614</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>89.66893953464995</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.96558527891325</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>53.3281253757179</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>21.5964689540549</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6181830358612</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>6.759898196019378</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -25137,7 +25137,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>151.8757738651499</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>322.8707716361305</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>197.0149100607544</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25213,13 +25213,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>75.43346327040841</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>322.8707716361305</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>3.458309905566978</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.8853134985971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>60.11859830455646</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>156.0104092588494</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>348.9253100933457</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>51.41593202746083</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>186.2146957430257</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>72.88665600388288</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>19.29091348988636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.326677470263093</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>443796.0427092959</v>
+        <v>443796.042709296</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>443796.0427092959</v>
+        <v>443796.042709296</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>443796.042709296</v>
+        <v>443796.0427092959</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443796.0427092959</v>
+        <v>443796.042709296</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443796.042709296</v>
+        <v>443796.0427092959</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>443796.0427092959</v>
+        <v>443796.042709296</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>443796.0427092959</v>
+        <v>443796.042709296</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500070.0722702435</v>
+        <v>500070.0722702434</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500070.0722702434</v>
+        <v>500070.0722702435</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>500070.0722702435</v>
+        <v>500070.0722702437</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500070.0722702434</v>
+        <v>500070.0722702435</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500070.0722702435</v>
+        <v>500070.0722702437</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500070.0722702435</v>
+        <v>500070.0722702437</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97727.09030973139</v>
+        <v>97727.09030973131</v>
       </c>
       <c r="C2" t="n">
-        <v>97727.09030973139</v>
+        <v>97727.09030973133</v>
       </c>
       <c r="D2" t="n">
-        <v>97727.09030973136</v>
+        <v>97727.0903097314</v>
       </c>
       <c r="E2" t="n">
         <v>97727.09030973136</v>
       </c>
       <c r="F2" t="n">
-        <v>97727.09030973143</v>
+        <v>97727.09030973141</v>
       </c>
       <c r="G2" t="n">
-        <v>97727.09030973141</v>
+        <v>97727.09030973139</v>
       </c>
       <c r="H2" t="n">
-        <v>97727.09030973141</v>
+        <v>97727.09030973139</v>
       </c>
       <c r="I2" t="n">
-        <v>110117.9244799722</v>
+        <v>110117.9244799721</v>
       </c>
       <c r="J2" t="n">
         <v>110117.9244799721</v>
@@ -26343,19 +26343,19 @@
         <v>110117.9244799721</v>
       </c>
       <c r="L2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="M2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="N2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="O2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
       <c r="P2" t="n">
-        <v>110117.9244799721</v>
+        <v>110117.9244799722</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25216.73195181806</v>
+        <v>25216.73195181807</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427568</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>15700.44267092141</v>
       </c>
       <c r="C4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="D4" t="n">
         <v>15700.44267092141</v>
@@ -26429,7 +26429,7 @@
         <v>15700.44267092141</v>
       </c>
       <c r="F4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="G4" t="n">
         <v>15700.44267092141</v>
@@ -26438,28 +26438,28 @@
         <v>15700.44267092141</v>
       </c>
       <c r="I4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="J4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="K4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="L4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="M4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="N4" t="n">
         <v>17703.77972371005</v>
       </c>
       <c r="O4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
       <c r="P4" t="n">
-        <v>17703.77972371004</v>
+        <v>17703.77972371005</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134279.7872495388</v>
+        <v>-134984.1470710304</v>
       </c>
       <c r="C6" t="n">
-        <v>20345.93336858167</v>
+        <v>19641.5735470901</v>
       </c>
       <c r="D6" t="n">
-        <v>20345.93336858164</v>
+        <v>19641.57354709017</v>
       </c>
       <c r="E6" t="n">
-        <v>53973.53336858164</v>
+        <v>53269.17354709013</v>
       </c>
       <c r="F6" t="n">
-        <v>53973.53336858172</v>
+        <v>53269.17354709018</v>
       </c>
       <c r="G6" t="n">
-        <v>53973.5333685817</v>
+        <v>53269.17354709015</v>
       </c>
       <c r="H6" t="n">
-        <v>53973.5333685817</v>
+        <v>53269.17354709015</v>
       </c>
       <c r="I6" t="n">
-        <v>33378.76176701595</v>
+        <v>32769.71605452623</v>
       </c>
       <c r="J6" t="n">
-        <v>-62127.02322392289</v>
+        <v>-62736.06893641257</v>
       </c>
       <c r="K6" t="n">
-        <v>58595.49371883397</v>
+        <v>57986.44800634432</v>
       </c>
       <c r="L6" t="n">
-        <v>58595.49371883392</v>
+        <v>57986.44800634433</v>
       </c>
       <c r="M6" t="n">
-        <v>58595.49371883395</v>
+        <v>57986.44800634433</v>
       </c>
       <c r="N6" t="n">
-        <v>58595.49371883394</v>
+        <v>57986.44800634433</v>
       </c>
       <c r="O6" t="n">
-        <v>58595.49371883395</v>
+        <v>57986.44800634433</v>
       </c>
       <c r="P6" t="n">
-        <v>58595.493718834</v>
+        <v>57986.44800634433</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.82790735525987</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="J4" t="n">
-        <v>461.399905760334</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
-        <v>419.8550006816141</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O3" t="n">
-        <v>77.94592742031473</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34868,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>63.89640633088408</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>85.46778899800323</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35105,16 +35105,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>381.3045564404402</v>
+        <v>364.842669417354</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>77.19886752926232</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846608</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>359.9096973612266</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>435.2356237478841</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O14" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35825,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>324.0137127175906</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
-        <v>85.46778899800312</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>211.6076016844843</v>
       </c>
       <c r="L19" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>395.137166636617</v>
@@ -36059,10 +36059,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L20" t="n">
-        <v>324.0137127175906</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P21" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O23" t="n">
-        <v>415.010189472638</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="K24" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155939</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N26" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>162.8199733981326</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155939</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>73.06155854104156</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O30" t="n">
-        <v>150.7519016821051</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37080,19 +37080,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P32" t="n">
-        <v>263.0232516395694</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>415.010189472638</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>75.42597529544717</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155939</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.2737632597938</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>533.7539620806205</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155939</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>155.2981118204439</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="L41" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>349.6900184701288</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
